--- a/ТЗ_WelbeX_Шелухина Дарья.xlsx
+++ b/ТЗ_WelbeX_Шелухина Дарья.xlsx
@@ -93,12 +93,6 @@
     <t>Отображается количество изученных слов по каждой игре</t>
   </si>
   <si>
-    <t>Не корректное количество изученных слов по каждой игре (общее количество изученных слов  - 34, по играм - 0)</t>
-  </si>
-  <si>
-    <t>Шрифт Heivetica в личном профиле (название игр в разделе "Статистика")</t>
-  </si>
-  <si>
     <t>Нет подсчета статистики по игре Спринт в профиле</t>
   </si>
   <si>
@@ -144,9 +138,6 @@
     <t>При нажати на иконку "Удалить слово" статус слова меняется не на всех карточках, в некоторых после нескольких нажатий</t>
   </si>
   <si>
-    <t>Шрифт Heivetica на чекбоксах</t>
-  </si>
-  <si>
     <t>Предоставлен выбор уровня игры от 1 до 6, уровень игры не выбирается автоматически как текущий уровень установленный в учебнике</t>
   </si>
   <si>
@@ -222,87 +213,135 @@
     <t>Точка после восклицательного знака не ставится.</t>
   </si>
   <si>
-    <t>скрин 1</t>
-  </si>
-  <si>
-    <t>видео 2</t>
-  </si>
-  <si>
-    <t>скрин 4, 4,1, 4,2, 4,3</t>
-  </si>
-  <si>
-    <t>скрин 5</t>
-  </si>
-  <si>
-    <t>видео 7</t>
-  </si>
-  <si>
-    <t>скрин 4</t>
-  </si>
-  <si>
-    <t>скрин 8</t>
-  </si>
-  <si>
-    <t>видео 9</t>
-  </si>
-  <si>
-    <t>скрин 11</t>
-  </si>
-  <si>
-    <t>При нажати  на иконку "Сложное слово" статус слова меняется не на всех карточках, в некоторых после нескольких нажатий</t>
-  </si>
-  <si>
-    <t>видео 10</t>
-  </si>
-  <si>
-    <t>видео 11</t>
-  </si>
-  <si>
     <t>После нажатия на тренировку из Словаря из раздела Сложные слова ни одного слова в игре не было</t>
   </si>
   <si>
-    <t>видео 14</t>
-  </si>
-  <si>
-    <t>скрин 17</t>
-  </si>
-  <si>
-    <t>скрин 18</t>
-  </si>
-  <si>
-    <t>скрин 16</t>
-  </si>
-  <si>
-    <t>видео 15</t>
-  </si>
-  <si>
     <t>адаптивная разметка, макет не должен выступать по ширине (не должна появляться горизонтальная полоса прокрутки), элементы не должны пересекаться, текст не должен выступать за границы элементов при ширине экрана более 500px</t>
   </si>
   <si>
     <t>Адаптивная верстка "Саванна"</t>
   </si>
   <si>
-    <t>При ширине экрана 510рх не все варианты ответов  отражены на странице. Пустое область под игрой.</t>
-  </si>
-  <si>
-    <t>скрин 19
-скрин 19.1</t>
-  </si>
-  <si>
     <t>Адаптивная верстка "Спринт"</t>
   </si>
   <si>
     <t>При ширине экрана 510рх игровая область обрезана с правой стороны</t>
   </si>
   <si>
-    <t>скрин 20</t>
+    <t>https://disk.yandex.ru/i/xbVZyjuCHoAHEw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/SC3euNqujK3DjA</t>
+  </si>
+  <si>
+    <t>Не корректное количество изученных слов по каждой игре (общее количество изученных слов - 34, по играм - 0)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">https://disk.yandex.ru/i/9Gg5Msj3LsNs5Q
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">https://disk.yandex.ru/i/YMIUxNCnYC5Lvw
+https://disk.yandex.ru/i/CffMbO5ah3LP3A
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>https://disk.yandex.ru/i/V7KbRXfe8897ww</t>
+    </r>
+  </si>
+  <si>
+    <t>Шрифт Helvetica в личном профиле (название игр в разделе "Статистика")</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/SIbjgHVMu4XhOA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/9Gg5Msj3LsNs5Q</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/e34VfpCeWkQQ4g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/PTs492JjMA2yZA</t>
+  </si>
+  <si>
+    <t>При нажати на иконку "Сложное слово" статус слова меняется не на всех карточках, в некоторых после нескольких нажатий</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/VlzvPo5PwhuYTA</t>
+  </si>
+  <si>
+    <t>Шрифт Helvetica на чекбоксах</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/yoW6wTd5MV0GBg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/PpoXBLv8Dd4IPA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/cECQtCpkw36R0Q</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/R47-srzglD7c6g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/eaELUIK0ws6YlA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Dq1DhsC6OGN8Vw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/sCUOscKK61eSpg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/Wme7PnNJw8GJQg</t>
+  </si>
+  <si>
+    <t>При ширине экрана 510рх не все варианты ответов отражены на странице. Пустое область под игрой.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">https://disk.yandex.ru/i/HDx6hx3y7c36ew
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>https://disk.yandex.ru/i/G_Dj-6xEt3J5FQ</t>
+    </r>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/idHI9H6sTGjL_w</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +393,53 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -364,18 +450,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFABF8F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -384,302 +470,160 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -710,179 +654,93 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1182,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F29"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,438 +1057,544 @@
     <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D1" s="11" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="35" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D2" s="11" t="s">
+      <c r="F1" s="36"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="24">
+        <v>1</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="24">
+        <v>2</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="24">
+        <v>3</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="24">
+        <v>4</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="24">
+        <v>5</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="24">
+        <v>6</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="24">
+        <v>7</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="24">
+        <v>8</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="24">
+        <v>9</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="24">
+        <v>10</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="24">
+        <v>11</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24">
+        <v>12</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="24">
+        <v>13</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="24">
+        <v>14</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="24">
+        <v>15</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="24">
+        <v>16</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="24">
+        <v>17</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="24">
+        <v>18</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="24">
+        <v>19</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="24">
+        <v>20</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="41"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="20">
-        <v>1</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="E26" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="23">
-        <v>2</v>
-      </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
-        <v>3</v>
-      </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="23">
-        <v>4</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="23">
-        <v>5</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="26">
-        <v>6</v>
-      </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="20">
-        <v>7</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="23">
-        <v>8</v>
-      </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="23">
-        <v>9</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="26">
-        <v>10</v>
-      </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="20">
-        <v>11</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26">
-        <v>12</v>
-      </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="20">
-        <v>13</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="26">
-        <v>14</v>
-      </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="33">
-        <v>15</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="20">
-        <v>16</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="26">
-        <v>17</v>
-      </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="61">
-        <v>18</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B22" s="20">
-        <v>19</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="26">
-        <v>20</v>
-      </c>
-      <c r="C23" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="42" t="s">
+    </row>
+    <row r="29" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="33" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="43" t="s">
+      <c r="C29" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="43" t="s">
+      <c r="E29" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="51" t="s">
-        <v>66</v>
-      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C4:C9"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C19:C20"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F8" r:id="rId6"/>
+    <hyperlink ref="F9" r:id="rId7"/>
+    <hyperlink ref="F10" r:id="rId8"/>
+    <hyperlink ref="F11" r:id="rId9"/>
+    <hyperlink ref="F12" r:id="rId10"/>
+    <hyperlink ref="F13" r:id="rId11"/>
+    <hyperlink ref="F14" r:id="rId12"/>
+    <hyperlink ref="F15" r:id="rId13"/>
+    <hyperlink ref="F16" r:id="rId14"/>
+    <hyperlink ref="F17" r:id="rId15"/>
+    <hyperlink ref="F18" r:id="rId16"/>
+    <hyperlink ref="F19" r:id="rId17"/>
+    <hyperlink ref="F20" r:id="rId18"/>
+    <hyperlink ref="F21" r:id="rId19"/>
+    <hyperlink ref="F23" r:id="rId20"/>
+    <hyperlink ref="C27" r:id="rId21"/>
+    <hyperlink ref="D27" r:id="rId22"/>
+    <hyperlink ref="E27" r:id="rId23"/>
+    <hyperlink ref="F27" r:id="rId24"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
